--- a/src/main/resources/testdata/TestResults.xlsx
+++ b/src/main/resources/testdata/TestResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="82">
   <si>
     <t>Test Adı</t>
   </si>
@@ -78,13 +78,314 @@
   <si>
     <t>Tue Jan 13 21:02:34 TRT 2026</t>
   </si>
+  <si>
+    <t>element click intercepted: Element &lt;span data-v-effd9768=""&gt;...&lt;/span&gt; is not clickable at point (331, 936). Other element would receive the click: &lt;efilli-layout-dynamic&gt;&lt;/efilli-layout-dynamic&gt;
+  (Session info: chrome=143.0.7499.193)
+Build info: version: '4.15.0', revision: '1d14b5521b'
+System info: os.name: 'Mac OS X', os.arch: 'aarch64', os.version: '26.1', java.version: '11.0.24'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [96974413c5f8fa5a614ec083d9c93f71, clickElement {id=f.444E0DC4AEEE91B6E940D7128BAF2065.d.360F97CE7B9FCE5706510D3AB9F0430B.e.276}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 143.0.7499.193, chrome: {chromedriverVersion: 143.0.7499.192 (be2c1f4fd45..., userDataDir: /var/folders/l4/w6t3_jjd6vn...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:55864}, goog:processID: 11325, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: mac, proxy: Proxy(), se:cdp: ws://localhost:55864/devtoo..., se:cdpVersion: 143.0.7499.193, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on mac (96974413c5f8fa5a614ec083d9c93f71)] -&gt; xpath: //a[contains(text(),'5')] | //span[contains(text(),'5')]]
+Session ID: 96974413c5f8fa5a614ec083d9c93f71</t>
+  </si>
+  <si>
+    <t>Tue Jan 13 21:16:25 TRT 2026</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Tue Jan 13 21:20:40 TRT 2026</t>
+  </si>
+  <si>
+    <t>Tue Jan 13 21:25:46 TRT 2026</t>
+  </si>
+  <si>
+    <t>Tue Jan 13 21:27:05 TRT 2026</t>
+  </si>
+  <si>
+    <t>Tue Jan 13 21:27:54 TRT 2026</t>
+  </si>
+  <si>
+    <t>Tue Jan 13 21:33:23 TRT 2026</t>
+  </si>
+  <si>
+    <t>Tue Jan 13 21:34:02 TRT 2026</t>
+  </si>
+  <si>
+    <t>Tue Jan 13 21:36:32 TRT 2026</t>
+  </si>
+  <si>
+    <t>element click intercepted: Element &lt;button class="hb-AxhfK ewlHvn sqz36w0u1tr" kind="primary" name="btnLogin" id="btnLogin"&gt;...&lt;/button&gt; is not clickable at point (864, 491). Other element would receive the click: &lt;input type="text" autocomplete="username" name="username" id="txtUserName" placeholder="E-posta adresi" class="hb-AxhBV czbnQG sgg1a7rd2ya" value="farukakyol441@gmail.com"&gt;
+  (Session info: chrome=143.0.7499.193)
+Build info: version: '4.15.0', revision: '1d14b5521b'
+System info: os.name: 'Mac OS X', os.arch: 'aarch64', os.version: '26.1', java.version: '11.0.24'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [a85a8357e513aefc057bda4d2d941e21, clickElement {id=f.2019BC80D2540A61A159877BCDE458B4.d.E0C6F6AC639EF57A8ADE02B772B093A5.e.91}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 143.0.7499.193, chrome: {chromedriverVersion: 143.0.7499.192 (be2c1f4fd45..., userDataDir: /var/folders/l4/w6t3_jjd6vn...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50786}, goog:processID: 12390, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: mac, proxy: Proxy(), se:cdp: ws://localhost:50786/devtoo..., se:cdpVersion: 143.0.7499.193, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on mac (a85a8357e513aefc057bda4d2d941e21)] -&gt; id: btnLogin]
+Session ID: a85a8357e513aefc057bda4d2d941e21</t>
+  </si>
+  <si>
+    <t>Tue Jan 13 21:57:39 TRT 2026</t>
+  </si>
+  <si>
+    <t>element click intercepted: Element &lt;button class="hb-AxhfK aoxYK sspst71m7r0" kind="primary" name="btnLogin" id="btnLogin"&gt;...&lt;/button&gt; is not clickable at point (864, 491). Other element would receive the click: &lt;input type="text" autocomplete="username" name="username" id="txtUserName" placeholder="E-posta adresi" class="hb-AxhBV dhQydp s4k661rs4iz" value="farukakyol441@gmail.com"&gt;
+  (Session info: chrome=143.0.7499.193)
+Build info: version: '4.15.0', revision: '1d14b5521b'
+System info: os.name: 'Mac OS X', os.arch: 'aarch64', os.version: '26.1', java.version: '11.0.24'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [a80eb2c96f7bc5f89d4f7a82931237e2, clickElement {id=f.27F2BAD26DC9D8FA3715E49649BFEF96.d.16074E4DC44169D58115589D12B75A30.e.101}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 143.0.7499.193, chrome: {chromedriverVersion: 143.0.7499.192 (be2c1f4fd45..., userDataDir: /var/folders/l4/w6t3_jjd6vn...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51118}, goog:processID: 12434, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: mac, proxy: Proxy(), se:cdp: ws://localhost:51118/devtoo..., se:cdpVersion: 143.0.7499.193, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on mac (a80eb2c96f7bc5f89d4f7a82931237e2)] -&gt; id: btnLogin]
+Session ID: a80eb2c96f7bc5f89d4f7a82931237e2</t>
+  </si>
+  <si>
+    <t>Tue Jan 13 21:58:40 TRT 2026</t>
+  </si>
+  <si>
+    <t>element click intercepted: Element &lt;button class="hb-AxhfK fndCJA sehw3w6qcvf" kind="primary" name="btnLogin" id="btnLogin"&gt;...&lt;/button&gt; is not clickable at point (864, 491). Other element would receive the click: &lt;input type="text" autocomplete="username" name="username" id="txtUserName" placeholder="E-posta adresi" class="hb-AxhBV hplUWH suaa65ioy6k" value="farukakyol441@gmail.com"&gt;
+  (Session info: chrome=143.0.7499.193)
+Build info: version: '4.15.0', revision: '1d14b5521b'
+System info: os.name: 'Mac OS X', os.arch: 'aarch64', os.version: '26.1', java.version: '11.0.24'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [3c448f3861dc38fb898e1e5104c81083, clickElement {id=f.BC587B90F096756D590321DCAF4114A2.d.26F8E5577938F550FD75E113C6FCB279.e.90}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 143.0.7499.193, chrome: {chromedriverVersion: 143.0.7499.192 (be2c1f4fd45..., userDataDir: /var/folders/l4/w6t3_jjd6vn...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:51912}, goog:processID: 12485, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: mac, proxy: Proxy(), se:cdp: ws://localhost:51912/devtoo..., se:cdpVersion: 143.0.7499.193, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on mac (3c448f3861dc38fb898e1e5104c81083)] -&gt; xpath: //*[@id='btnLogin']]
+Session ID: 3c448f3861dc38fb898e1e5104c81083</t>
+  </si>
+  <si>
+    <t>Tue Jan 13 22:01:32 TRT 2026</t>
+  </si>
+  <si>
+    <t>invalid selector: Unable to locate an element with the xpath expression //*[@id='btnLogin'] and text()='Giriş yap' because of the following error:
+TypeError: Failed to execute 'evaluate' on 'Document': The result is not a node set, and therefore cannot be converted to the desired type.
+  (Session info: chrome=143.0.7499.193)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#invalid-selector-exception
+Build info: version: '4.15.0', revision: '1d14b5521b'
+System info: os.name: 'Mac OS X', os.arch: 'aarch64', os.version: '26.1', java.version: '11.0.24'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [b24b5cac521863b8543126fabb433c04, findElement {using=xpath, value=//*[@id='btnLogin'] and text()='Giriş yap'}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 143.0.7499.193, chrome: {chromedriverVersion: 143.0.7499.192 (be2c1f4fd45..., userDataDir: /var/folders/l4/w6t3_jjd6vn...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52335}, goog:processID: 12583, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: mac, proxy: Proxy(), se:cdp: ws://localhost:52335/devtoo..., se:cdpVersion: 143.0.7499.193, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: b24b5cac521863b8543126fabb433c04</t>
+  </si>
+  <si>
+    <t>Tue Jan 13 22:02:51 TRT 2026</t>
+  </si>
+  <si>
+    <t>Tue Jan 13 22:04:31 TRT 2026</t>
+  </si>
+  <si>
+    <t>Tue Jan 13 22:06:56 TRT 2026</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for element to be clickable: Proxy element for: DefaultElementLocator 'By.cssSelector: i[class='new-search-icon']' (tried for 10 second(s) with 500 milliseconds interval)</t>
+  </si>
+  <si>
+    <t>Tue Jan 13 22:18:24 TRT 2026</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for element to be clickable: Proxy element for: DefaultElementLocator 'By.cssSelector: span[data-test-id='search-bar-input']' (tried for 10 second(s) with 500 milliseconds interval)</t>
+  </si>
+  <si>
+    <t>Tue Jan 13 22:20:28 TRT 2026</t>
+  </si>
+  <si>
+    <t>Tue Jan 13 22:21:46 TRT 2026</t>
+  </si>
+  <si>
+    <t>Tue Jan 13 22:26:28 TRT 2026</t>
+  </si>
+  <si>
+    <t>Tue Jan 13 22:29:34 TRT 2026</t>
+  </si>
+  <si>
+    <t>Given css selector expression "input[placeholder='Ürün, kategori veya marka ara']']" is invalid: InvalidSelectorError: Document.querySelector: 'input[placeholder='Ürün, kategori veya marka ara']']' is not a valid selector: "input[placeholder='Ürün, kategori veya marka ara']']"
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#invalid-selector-exception
+Build info: version: '4.15.0', revision: '1d14b5521b'
+System info: os.name: 'Mac OS X', os.arch: 'aarch64', os.version: '26.1', java.version: '11.0.24'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Command: [c20150ec-2e69-4512-a878-6e387113b281, findElement {using=css selector, value=input[placeholder='Ürün, kategori veya marka ara']']}]
+Capabilities {acceptInsecureCerts: true, browserName: firefox, browserVersion: 146.0.1, moz:accessibilityChecks: false, moz:buildID: 20251217121356, moz:geckodriverVersion: 0.36.0, moz:headless: false, moz:platformVersion: 25.1.0, moz:processID: 13530, moz:profile: /var/folders/l4/w6t3_jjd6vn..., moz:shutdownTimeout: 60000, moz:webdriverClick: true, moz:windowless: false, pageLoadStrategy: normal, platformName: mac, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, userAgent: Mozilla/5.0 (Macintosh; Int...}
+Session ID: c20150ec-2e69-4512-a878-6e387113b281</t>
+  </si>
+  <si>
+    <t>Tue Jan 13 22:37:14 TRT 2026</t>
+  </si>
+  <si>
+    <t>Tue Jan 13 22:38:00 TRT 2026</t>
+  </si>
+  <si>
+    <t>Unable to clear element that cannot be edited: &lt;div class="initialComponent-jWu4fqeOfmZhku5aNxLE"&gt;
+Build info: version: '4.15.0', revision: '1d14b5521b'
+System info: os.name: 'Mac OS X', os.arch: 'aarch64', os.version: '26.1', java.version: '11.0.24'
+Driver info: org.openqa.selenium.firefox.FirefoxDriver
+Command: [9bb84680-19c8-46b8-bb2c-293ffebbbb78, clearElement {id=0b789aaa-5ccc-4684-98f7-c5f3cc653b80}]
+Capabilities {acceptInsecureCerts: true, browserName: firefox, browserVersion: 146.0.1, moz:accessibilityChecks: false, moz:buildID: 20251217121356, moz:geckodriverVersion: 0.36.0, moz:headless: false, moz:platformVersion: 25.1.0, moz:processID: 13601, moz:profile: /var/folders/l4/w6t3_jjd6vn..., moz:shutdownTimeout: 60000, moz:webdriverClick: true, moz:windowless: false, pageLoadStrategy: normal, platformName: mac, proxy: Proxy(), setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, userAgent: Mozilla/5.0 (Macintosh; Int...}
+Element: [[FirefoxDriver: firefox on mac (9bb84680-19c8-46b8-bb2c-293ffebbbb78)] -&gt; css selector: div[role='search']]
+Session ID: 9bb84680-19c8-46b8-bb2c-293ffebbbb78</t>
+  </si>
+  <si>
+    <t>Tue Jan 13 22:39:12 TRT 2026</t>
+  </si>
+  <si>
+    <t>[Login sayfası görüntülenmeli] 
+Expecting value to be true but was false</t>
+  </si>
+  <si>
+    <t>Tue Jan 13 23:00:47 TRT 2026</t>
+  </si>
+  <si>
+    <t>Tue Jan 13 23:03:25 TRT 2026</t>
+  </si>
+  <si>
+    <t>Tue Jan 13 23:05:44 TRT 2026</t>
+  </si>
+  <si>
+    <t>Tue Jan 13 23:06:47 TRT 2026</t>
+  </si>
+  <si>
+    <t>Tue Jan 13 23:08:03 TRT 2026</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of Proxy element for: DefaultElementLocator 'By.cssSelector: .search-input' (tried for 10 second(s) with 500 milliseconds interval)</t>
+  </si>
+  <si>
+    <t>Tue Jan 13 23:12:11 TRT 2026</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of Proxy element for: DefaultElementLocator 'By.cssSelector: search-input' (tried for 10 second(s) with 500 milliseconds interval)</t>
+  </si>
+  <si>
+    <t>Tue Jan 13 23:14:11 TRT 2026</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for visibility of Proxy element for: DefaultElementLocator 'By.xpath: //*[@id="single-search-suggestion-container"]/div/div/input' (tried for 10 second(s) with 500 milliseconds interval)</t>
+  </si>
+  <si>
+    <t>Tue Jan 13 23:16:00 TRT 2026</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"search-input"}
+  (Session info: chrome=143.0.7499.193)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.15.0', revision: '1d14b5521b'
+System info: os.name: 'Mac OS X', os.arch: 'aarch64', os.version: '26.1', java.version: '11.0.24'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [0e1a004dbd92542ae233ea26ffaec74b, findElement {using=xpath, value=search-input}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 143.0.7499.193, chrome: {chromedriverVersion: 143.0.7499.192 (be2c1f4fd45..., userDataDir: /var/folders/l4/w6t3_jjd6vn...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:63678}, goog:processID: 14772, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: mac, proxy: Proxy(), se:cdp: ws://localhost:63678/devtoo..., se:cdpVersion: 143.0.7499.193, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 0e1a004dbd92542ae233ea26ffaec74b</t>
+  </si>
+  <si>
+    <t>Tue Jan 13 23:21:09 TRT 2026</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.cssSelector: input[data-test-id='search-bar-input'] (tried for 10 second(s) with 500 milliseconds interval)</t>
+  </si>
+  <si>
+    <t>Tue Jan 13 23:26:58 TRT 2026</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"search-input"}
+  (Session info: chrome=143.0.7499.193)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.15.0', revision: '1d14b5521b'
+System info: os.name: 'Mac OS X', os.arch: 'aarch64', os.version: '26.1', java.version: '11.0.24'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [7c41ec6ed002825131949ec168adaac0, findElement {using=css selector, value=search-input}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 143.0.7499.193, chrome: {chromedriverVersion: 143.0.7499.192 (be2c1f4fd45..., userDataDir: /var/folders/l4/w6t3_jjd6vn...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:49351}, goog:processID: 15087, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: mac, proxy: Proxy(), se:cdp: ws://localhost:49351/devtoo..., se:cdpVersion: 143.0.7499.193, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 7c41ec6ed002825131949ec168adaac0</t>
+  </si>
+  <si>
+    <t>Tue Jan 13 23:28:41 TRT 2026</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"search-input-container"}
+  (Session info: chrome=143.0.7499.193)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.15.0', revision: '1d14b5521b'
+System info: os.name: 'Mac OS X', os.arch: 'aarch64', os.version: '26.1', java.version: '11.0.24'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [0e97d8f4a420d683928d9d6ea626956e, findElement {using=css selector, value=search-input-container}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 143.0.7499.193, chrome: {chromedriverVersion: 143.0.7499.192 (be2c1f4fd45..., userDataDir: /var/folders/l4/w6t3_jjd6vn...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50011}, goog:processID: 15159, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: mac, proxy: Proxy(), se:cdp: ws://localhost:50011/devtoo..., se:cdpVersion: 143.0.7499.193, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 0e97d8f4a420d683928d9d6ea626956e</t>
+  </si>
+  <si>
+    <t>Tue Jan 13 23:31:06 TRT 2026</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"css selector","selector":"ui-text-input  search-input"}
+  (Session info: chrome=143.0.7499.193)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.15.0', revision: '1d14b5521b'
+System info: os.name: 'Mac OS X', os.arch: 'aarch64', os.version: '26.1', java.version: '11.0.24'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [a46f657ea0ad5c1262c8d8744962e6f1, findElement {using=css selector, value=ui-text-input  search-input}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 143.0.7499.193, chrome: {chromedriverVersion: 143.0.7499.192 (be2c1f4fd45..., userDataDir: /var/folders/l4/w6t3_jjd6vn...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:50678}, goog:processID: 15277, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: mac, proxy: Proxy(), se:cdp: ws://localhost:50678/devtoo..., se:cdpVersion: 143.0.7499.193, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: a46f657ea0ad5c1262c8d8744962e6f1</t>
+  </si>
+  <si>
+    <t>Tue Jan 13 23:33:17 TRT 2026</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for element to be clickable: Proxy element for: DefaultElementLocator 'By.cssSelector: div[role='search']' (tried for 10 second(s) with 500 milliseconds interval)</t>
+  </si>
+  <si>
+    <t>Tue Jan 13 23:36:19 TRT 2026</t>
+  </si>
+  <si>
+    <t>invalid element state
+  (Session info: chrome=143.0.7499.193)
+Build info: version: '4.15.0', revision: '1d14b5521b'
+System info: os.name: 'Mac OS X', os.arch: 'aarch64', os.version: '26.1', java.version: '11.0.24'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [d68606f3379b9620519b90cba4f0a867, clearElement {id=f.96D57026113FAC33F3964CF09A48545C.d.F98E545959AA82E0052452B1D0E2C883.e.579}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 143.0.7499.193, chrome: {chromedriverVersion: 143.0.7499.192 (be2c1f4fd45..., userDataDir: /var/folders/l4/w6t3_jjd6vn...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:52121}, goog:processID: 15444, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: mac, proxy: Proxy(), se:cdp: ws://localhost:52121/devtoo..., se:cdpVersion: 143.0.7499.193, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on mac (d68606f3379b9620519b90cba4f0a867)] -&gt; xpath: //span[text()='Ürün, kategori veya marka ara']]
+Session ID: d68606f3379b9620519b90cba4f0a867</t>
+  </si>
+  <si>
+    <t>Tue Jan 13 23:38:05 TRT 2026</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//*[@placeholder='Ürün, kategori veya marka ara']"}
+  (Session info: chrome=143.0.7499.193)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.15.0', revision: '1d14b5521b'
+System info: os.name: 'Mac OS X', os.arch: 'aarch64', os.version: '26.1', java.version: '11.0.24'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [2159943f6b7139ea72c76770e018718c, findElement {using=xpath, value=//*[@placeholder='Ürün, kategori veya marka ara']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 143.0.7499.193, chrome: {chromedriverVersion: 143.0.7499.192 (be2c1f4fd45..., userDataDir: /var/folders/l4/w6t3_jjd6vn...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:53067}, goog:processID: 15518, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: mac, proxy: Proxy(), se:cdp: ws://localhost:53067/devtoo..., se:cdpVersion: 143.0.7499.193, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 2159943f6b7139ea72c76770e018718c</t>
+  </si>
+  <si>
+    <t>Tue Jan 13 23:41:49 TRT 2026</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//*[@placeholder='Ürün, kategori veya marka ara']"}
+  (Session info: chrome=143.0.7499.193)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#no-such-element-exception
+Build info: version: '4.15.0', revision: '1d14b5521b'
+System info: os.name: 'Mac OS X', os.arch: 'aarch64', os.version: '26.1', java.version: '11.0.24'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [fc67f0ab6435e6444235fa0e83812e76, findElement {using=xpath, value=//*[@placeholder='Ürün, kategori veya marka ara']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 143.0.7499.193, chrome: {chromedriverVersion: 143.0.7499.192 (be2c1f4fd45..., userDataDir: /var/folders/l4/w6t3_jjd6vn...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:53454}, goog:processID: 15627, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: mac, proxy: Proxy(), se:cdp: ws://localhost:53454/devtoo..., se:cdpVersion: 143.0.7499.193, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: fc67f0ab6435e6444235fa0e83812e76</t>
+  </si>
+  <si>
+    <t>Tue Jan 13 23:43:01 TRT 2026</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="12">
+  <fonts count="51">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -136,6 +437,240 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -170,7 +705,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -183,13 +718,52 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -321,6 +895,669 @@
         <v>18</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>11113.0</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s" s="13">
+        <v>21</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>10482.0</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s" s="14">
+        <v>21</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>39535.0</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s" s="15">
+        <v>21</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>39793.0</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s" s="16">
+        <v>21</v>
+      </c>
+      <c r="C12" t="n" s="0">
+        <v>39932.0</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s" s="17">
+        <v>21</v>
+      </c>
+      <c r="C13" t="n" s="0">
+        <v>51315.0</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s" s="18">
+        <v>21</v>
+      </c>
+      <c r="C14" t="n" s="0">
+        <v>19964.0</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s" s="19">
+        <v>21</v>
+      </c>
+      <c r="C15" t="n" s="0">
+        <v>40425.0</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s" s="20">
+        <v>6</v>
+      </c>
+      <c r="C16" t="n" s="0">
+        <v>17246.0</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s" s="21">
+        <v>6</v>
+      </c>
+      <c r="C17" t="n" s="0">
+        <v>16914.0</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s" s="22">
+        <v>6</v>
+      </c>
+      <c r="C18" t="n" s="0">
+        <v>17019.0</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s" s="23">
+        <v>6</v>
+      </c>
+      <c r="C19" t="n" s="0">
+        <v>15862.0</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s" s="24">
+        <v>6</v>
+      </c>
+      <c r="C20" t="n" s="0">
+        <v>38737.0</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s" s="25">
+        <v>6</v>
+      </c>
+      <c r="C21" t="n" s="0">
+        <v>46457.0</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s" s="26">
+        <v>6</v>
+      </c>
+      <c r="C22" t="n" s="0">
+        <v>26620.0</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s" s="27">
+        <v>6</v>
+      </c>
+      <c r="C23" t="n" s="0">
+        <v>26913.0</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s" s="28">
+        <v>6</v>
+      </c>
+      <c r="C24" t="n" s="0">
+        <v>26844.0</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s" s="29">
+        <v>6</v>
+      </c>
+      <c r="C25" t="n" s="0">
+        <v>26794.0</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s" s="30">
+        <v>6</v>
+      </c>
+      <c r="C26" t="n" s="0">
+        <v>27275.0</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s" s="31">
+        <v>6</v>
+      </c>
+      <c r="C27" t="n" s="0">
+        <v>7383.0</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s" s="32">
+        <v>6</v>
+      </c>
+      <c r="C28" t="n" s="0">
+        <v>26250.0</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s" s="33">
+        <v>6</v>
+      </c>
+      <c r="C29" t="n" s="0">
+        <v>6557.0</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s" s="34">
+        <v>6</v>
+      </c>
+      <c r="C30" t="n" s="0">
+        <v>35189.0</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s" s="35">
+        <v>21</v>
+      </c>
+      <c r="C31" t="n" s="0">
+        <v>28473.0</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s" s="36">
+        <v>21</v>
+      </c>
+      <c r="C32" t="n" s="0">
+        <v>29299.0</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s" s="37">
+        <v>21</v>
+      </c>
+      <c r="C33" t="n" s="0">
+        <v>27900.0</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s" s="38">
+        <v>21</v>
+      </c>
+      <c r="C34" t="n" s="0">
+        <v>39830.0</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s" s="39">
+        <v>6</v>
+      </c>
+      <c r="C35" t="n" s="0">
+        <v>59955.0</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s" s="40">
+        <v>6</v>
+      </c>
+      <c r="C36" t="n" s="0">
+        <v>59716.0</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="E36" t="s" s="0">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s" s="41">
+        <v>6</v>
+      </c>
+      <c r="C37" t="n" s="0">
+        <v>59855.0</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s" s="42">
+        <v>6</v>
+      </c>
+      <c r="C38" t="n" s="0">
+        <v>49441.0</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="E38" t="s" s="0">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s" s="43">
+        <v>6</v>
+      </c>
+      <c r="C39" t="n" s="0">
+        <v>49950.0</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s" s="44">
+        <v>6</v>
+      </c>
+      <c r="C40" t="n" s="0">
+        <v>49854.0</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="E40" t="s" s="0">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s" s="45">
+        <v>6</v>
+      </c>
+      <c r="C41" t="n" s="0">
+        <v>49928.0</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s" s="46">
+        <v>6</v>
+      </c>
+      <c r="C42" t="n" s="0">
+        <v>50038.0</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="E42" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s" s="47">
+        <v>6</v>
+      </c>
+      <c r="C43" t="n" s="0">
+        <v>59926.0</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="E43" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s" s="48">
+        <v>6</v>
+      </c>
+      <c r="C44" t="n" s="0">
+        <v>39789.0</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="E44" t="s" s="0">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s" s="49">
+        <v>6</v>
+      </c>
+      <c r="C45" t="n" s="0">
+        <v>49855.0</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="E45" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s" s="50">
+        <v>6</v>
+      </c>
+      <c r="C46" t="n" s="0">
+        <v>49734.0</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="E46" t="s" s="0">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/main/resources/testdata/TestResults.xlsx
+++ b/src/main/resources/testdata/TestResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="91">
   <si>
     <t>Test Adı</t>
   </si>
@@ -379,13 +379,56 @@
   <si>
     <t>Tue Jan 13 23:43:01 TRT 2026</t>
   </si>
+  <si>
+    <t>invalid selector: An invalid or illegal selector was specified
+  (Session info: chrome=143.0.7499.193)
+For documentation on this error, please visit: https://www.selenium.dev/documentation/webdriver/troubleshooting/errors#invalid-selector-exception
+Build info: version: '4.15.0', revision: '1d14b5521b'
+System info: os.name: 'Mac OS X', os.arch: 'aarch64', os.version: '26.1', java.version: '11.0.24'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [2aabebd28d5eb6c39e30a4347d2459ab, findElement {using=css selector, value=//img[@alt='Search icon']}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 143.0.7499.193, chrome: {chromedriverVersion: 143.0.7499.192 (be2c1f4fd45..., userDataDir: /var/folders/l4/w6t3_jjd6vn...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:49345}, goog:processID: 60368, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: mac, proxy: Proxy(), se:cdp: ws://localhost:49345/devtoo..., se:cdpVersion: 143.0.7499.193, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Session ID: 2aabebd28d5eb6c39e30a4347d2459ab</t>
+  </si>
+  <si>
+    <t>Wed Jan 14 08:21:23 TRT 2026</t>
+  </si>
+  <si>
+    <t>invalid element state
+  (Session info: chrome=143.0.7499.193)
+Build info: version: '4.15.0', revision: '1d14b5521b'
+System info: os.name: 'Mac OS X', os.arch: 'aarch64', os.version: '26.1', java.version: '11.0.24'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Command: [29c2040ada431d97e90c8084908155c8, clearElement {id=f.5C2605B8AE281BF799FFF0257BB6D284.d.0ECEFAFAA3A6FEAB8F1B7F7994F7CEBE.e.311}]
+Capabilities {acceptInsecureCerts: false, browserName: chrome, browserVersion: 143.0.7499.193, chrome: {chromedriverVersion: 143.0.7499.192 (be2c1f4fd45..., userDataDir: /var/folders/l4/w6t3_jjd6vn...}, fedcm:accounts: true, goog:chromeOptions: {debuggerAddress: localhost:49835}, goog:processID: 60447, networkConnectionEnabled: false, pageLoadStrategy: normal, platformName: mac, proxy: Proxy(), se:cdp: ws://localhost:49835/devtoo..., se:cdpVersion: 143.0.7499.193, setWindowRect: true, strictFileInteractability: false, timeouts: {implicit: 0, pageLoad: 300000, script: 30000}, unhandledPromptBehavior: dismiss and notify, webauthn:extension:credBlob: true, webauthn:extension:largeBlob: true, webauthn:extension:minPinLength: true, webauthn:extension:prf: true, webauthn:virtualAuthenticators: true}
+Element: [[ChromeDriver: chrome on mac (29c2040ada431d97e90c8084908155c8)] -&gt; xpath: //img[@alt='Search icon']]
+Session ID: 29c2040ada431d97e90c8084908155c8</t>
+  </si>
+  <si>
+    <t>Wed Jan 14 08:22:33 TRT 2026</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for element to be clickable: Proxy element for: DefaultElementLocator 'By.cssSelector: #single-search-suggestion-container &gt; div &gt; div &gt; input' (tried for 10 second(s) with 500 milliseconds interval)</t>
+  </si>
+  <si>
+    <t>Wed Jan 14 08:24:50 TRT 2026</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //*[@placeholder='Ürün, kategori veya marka ara'] (tried for 10 second(s) with 500 milliseconds interval)</t>
+  </si>
+  <si>
+    <t>Wed Jan 14 08:32:37 TRT 2026</t>
+  </si>
+  <si>
+    <t>Wed Jan 14 08:52:33 TRT 2026</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="51">
+  <fonts count="56">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -610,6 +653,36 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
       <b val="true"/>
     </font>
     <font>
@@ -705,7 +778,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -757,13 +830,18 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1558,6 +1636,91 @@
         <v>81</v>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s" s="51">
+        <v>6</v>
+      </c>
+      <c r="C47" t="n" s="0">
+        <v>39299.0</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="E47" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s" s="52">
+        <v>6</v>
+      </c>
+      <c r="C48" t="n" s="0">
+        <v>8417.0</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="E48" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s" s="53">
+        <v>6</v>
+      </c>
+      <c r="C49" t="n" s="0">
+        <v>18606.0</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="E49" t="s" s="0">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s" s="54">
+        <v>6</v>
+      </c>
+      <c r="C50" t="n" s="0">
+        <v>18104.0</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="E50" t="s" s="0">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s" s="55">
+        <v>6</v>
+      </c>
+      <c r="C51" t="n" s="0">
+        <v>18010.0</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="E51" t="s" s="0">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
